--- a/Projects/Federal Reserve Data/['CA', 'LF', 'FFR', 'CA Lag', 'LF Lag', 'FFR Lag']Aggregated C-A  Diff-in-DiffDAGVAR 2008-10-31 to 2020-02-29.xlsx
+++ b/Projects/Federal Reserve Data/['CA', 'LF', 'FFR', 'CA Lag', 'LF Lag', 'FFR Lag']Aggregated C-A  Diff-in-DiffDAGVAR 2008-10-31 to 2020-02-29.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>C/A</t>
   </si>
@@ -52,10 +52,28 @@
     <t>0.707</t>
   </si>
   <si>
-    <t>0.813</t>
-  </si>
-  <si>
-    <t>0.181**</t>
+    <t>-0.159***</t>
+  </si>
+  <si>
+    <t>-0.2***</t>
+  </si>
+  <si>
+    <t>8.418***</t>
+  </si>
+  <si>
+    <t>-0.007</t>
+  </si>
+  <si>
+    <t>-0.028***</t>
+  </si>
+  <si>
+    <t>-0.01</t>
+  </si>
+  <si>
+    <t>0.093</t>
+  </si>
+  <si>
+    <t>0.212**</t>
   </si>
 </sst>
 </file>
@@ -437,6 +455,12 @@
       <c r="B2" t="s">
         <v>8</v>
       </c>
+      <c r="C2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
@@ -445,6 +469,12 @@
       <c r="B3" t="s">
         <v>9</v>
       </c>
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
@@ -453,6 +483,12 @@
       <c r="B4" t="s">
         <v>10</v>
       </c>
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
@@ -462,10 +498,10 @@
         <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D5" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -476,10 +512,10 @@
         <v>0.72</v>
       </c>
       <c r="C6">
-        <v>0.38</v>
+        <v>0.85</v>
       </c>
       <c r="D6">
-        <v>0.47</v>
+        <v>0.27</v>
       </c>
     </row>
   </sheetData>
